--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Cxcl13</t>
@@ -88,7 +88,10 @@
     <t>Cxcr5</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H2">
         <v>23.303222</v>
       </c>
       <c r="I2">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J2">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1625146666666667</v>
+        <v>0.8542635000000001</v>
       </c>
       <c r="N2">
-        <v>0.487544</v>
+        <v>1.708527</v>
       </c>
       <c r="O2">
-        <v>0.1568506082117636</v>
+        <v>0.2602038345382578</v>
       </c>
       <c r="P2">
-        <v>0.1722103383283364</v>
+        <v>0.1959844976819479</v>
       </c>
       <c r="Q2">
-        <v>1.262371785196445</v>
+        <v>6.635697328999</v>
       </c>
       <c r="R2">
-        <v>11.361346066768</v>
+        <v>39.814183973994</v>
       </c>
       <c r="S2">
-        <v>0.1549791380593089</v>
+        <v>0.2492116858757643</v>
       </c>
       <c r="T2">
-        <v>0.1701556028587072</v>
+        <v>0.1903861698327277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H3">
         <v>23.303222</v>
       </c>
       <c r="I3">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J3">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2772375</v>
+        <v>0.1625146666666667</v>
       </c>
       <c r="N3">
-        <v>0.5544750000000001</v>
+        <v>0.487544</v>
       </c>
       <c r="O3">
-        <v>0.2675750526769409</v>
+        <v>0.0495010490737032</v>
       </c>
       <c r="P3">
-        <v>0.1958517125523119</v>
+        <v>0.05592599118295911</v>
       </c>
       <c r="Q3">
-        <v>2.153509003075</v>
+        <v>1.262371785196444</v>
       </c>
       <c r="R3">
-        <v>12.92105401845</v>
+        <v>11.361346066768</v>
       </c>
       <c r="S3">
-        <v>0.2643824687887718</v>
+        <v>0.0474099081367024</v>
       </c>
       <c r="T3">
-        <v>0.1935148989528775</v>
+        <v>0.05432845649201177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H4">
         <v>23.303222</v>
       </c>
       <c r="I4">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J4">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5963590000000001</v>
+        <v>0.130141</v>
       </c>
       <c r="N4">
-        <v>1.789077</v>
+        <v>0.390423</v>
       </c>
       <c r="O4">
-        <v>0.5755743391112955</v>
+        <v>0.03964021315512534</v>
       </c>
       <c r="P4">
-        <v>0.6319379491193516</v>
+        <v>0.04478527734035173</v>
       </c>
       <c r="Q4">
-        <v>4.632362056232668</v>
+        <v>1.010901538100667</v>
       </c>
       <c r="R4">
-        <v>41.69125850609401</v>
+        <v>9.098113842905999</v>
       </c>
       <c r="S4">
-        <v>0.5687068477547342</v>
+        <v>0.03796563707984462</v>
       </c>
       <c r="T4">
-        <v>0.62439795279123</v>
+        <v>0.04350597888391758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09380033333333333</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H5">
-        <v>0.281401</v>
+        <v>23.303222</v>
       </c>
       <c r="I5">
-        <v>0.01193154539718527</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J5">
-        <v>0.01193154539718528</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1625146666666667</v>
+        <v>0.2772375</v>
       </c>
       <c r="N5">
-        <v>0.487544</v>
+        <v>0.5544750000000001</v>
       </c>
       <c r="O5">
-        <v>0.1568506082117636</v>
+        <v>0.08444497579236412</v>
       </c>
       <c r="P5">
-        <v>0.1722103383283364</v>
+        <v>0.06360362133709214</v>
       </c>
       <c r="Q5">
-        <v>0.01524392990488889</v>
+        <v>2.153509003075</v>
       </c>
       <c r="R5">
-        <v>0.137195369144</v>
+        <v>12.92105401845</v>
       </c>
       <c r="S5">
-        <v>0.001871470152454779</v>
+        <v>0.08087765047082335</v>
       </c>
       <c r="T5">
-        <v>0.002054735469629181</v>
+        <v>0.06178677393918954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09380033333333333</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H6">
-        <v>0.281401</v>
+        <v>23.303222</v>
       </c>
       <c r="I6">
-        <v>0.01193154539718527</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J6">
-        <v>0.01193154539718528</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2772375</v>
+        <v>1.858898333333333</v>
       </c>
       <c r="N6">
-        <v>0.5544750000000001</v>
+        <v>5.576695</v>
       </c>
       <c r="O6">
-        <v>0.2675750526769409</v>
+        <v>0.5662099274405495</v>
       </c>
       <c r="P6">
-        <v>0.1958517125523119</v>
+        <v>0.6397006124576493</v>
       </c>
       <c r="Q6">
-        <v>0.0260049699125</v>
+        <v>14.43944017903222</v>
       </c>
       <c r="R6">
-        <v>0.156029819475</v>
+        <v>129.95496161129</v>
       </c>
       <c r="S6">
-        <v>0.003192583888169161</v>
+        <v>0.5422907422846094</v>
       </c>
       <c r="T6">
-        <v>0.002336813599434391</v>
+        <v>0.621427464345207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.09380033333333333</v>
+        <v>0.342617</v>
       </c>
       <c r="H7">
-        <v>0.281401</v>
+        <v>0.685234</v>
       </c>
       <c r="I7">
-        <v>0.01193154539718527</v>
+        <v>0.04224437615225601</v>
       </c>
       <c r="J7">
-        <v>0.01193154539718528</v>
+        <v>0.02856515650694651</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5963590000000001</v>
+        <v>0.8542635000000001</v>
       </c>
       <c r="N7">
-        <v>1.789077</v>
+        <v>1.708527</v>
       </c>
       <c r="O7">
-        <v>0.5755743391112955</v>
+        <v>0.2602038345382578</v>
       </c>
       <c r="P7">
-        <v>0.6319379491193516</v>
+        <v>0.1959844976819479</v>
       </c>
       <c r="Q7">
-        <v>0.05593867298633334</v>
+        <v>0.2926851975795</v>
       </c>
       <c r="R7">
-        <v>0.5034480568770001</v>
+        <v>1.170740790318</v>
       </c>
       <c r="S7">
-        <v>0.006867491356561334</v>
+        <v>0.01099214866249355</v>
       </c>
       <c r="T7">
-        <v>0.007539996328121703</v>
+        <v>0.005598327849220136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.342617</v>
+      </c>
+      <c r="H8">
+        <v>0.685234</v>
+      </c>
+      <c r="I8">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J8">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1625146666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.487544</v>
+      </c>
+      <c r="O8">
+        <v>0.0495010490737032</v>
+      </c>
+      <c r="P8">
+        <v>0.05592599118295911</v>
+      </c>
+      <c r="Q8">
+        <v>0.05568028754933334</v>
+      </c>
+      <c r="R8">
+        <v>0.334081725296</v>
+      </c>
+      <c r="S8">
+        <v>0.002091140937000802</v>
+      </c>
+      <c r="T8">
+        <v>0.001597534690947338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.342617</v>
+      </c>
+      <c r="H9">
+        <v>0.685234</v>
+      </c>
+      <c r="I9">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J9">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.130141</v>
+      </c>
+      <c r="N9">
+        <v>0.390423</v>
+      </c>
+      <c r="O9">
+        <v>0.03964021315512534</v>
+      </c>
+      <c r="P9">
+        <v>0.04478527734035173</v>
+      </c>
+      <c r="Q9">
+        <v>0.044588518997</v>
+      </c>
+      <c r="R9">
+        <v>0.267531113982</v>
+      </c>
+      <c r="S9">
+        <v>0.001674576075280722</v>
+      </c>
+      <c r="T9">
+        <v>0.001279298456434152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.342617</v>
+      </c>
+      <c r="H10">
+        <v>0.685234</v>
+      </c>
+      <c r="I10">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J10">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.2772375</v>
+      </c>
+      <c r="N10">
+        <v>0.5544750000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.08444497579236412</v>
+      </c>
+      <c r="P10">
+        <v>0.06360362133709214</v>
+      </c>
+      <c r="Q10">
+        <v>0.09498628053750001</v>
+      </c>
+      <c r="R10">
+        <v>0.37994512215</v>
+      </c>
+      <c r="S10">
+        <v>0.003567325321540783</v>
+      </c>
+      <c r="T10">
+        <v>0.0018168473979026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.342617</v>
+      </c>
+      <c r="H11">
+        <v>0.685234</v>
+      </c>
+      <c r="I11">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J11">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.858898333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.576695</v>
+      </c>
+      <c r="O11">
+        <v>0.5662099274405495</v>
+      </c>
+      <c r="P11">
+        <v>0.6397006124576493</v>
+      </c>
+      <c r="Q11">
+        <v>0.6368901702716667</v>
+      </c>
+      <c r="R11">
+        <v>3.82134102163</v>
+      </c>
+      <c r="S11">
+        <v>0.02391918515594016</v>
+      </c>
+      <c r="T11">
+        <v>0.01827314811244229</v>
       </c>
     </row>
   </sheetData>
